--- a/data/Data.Trek_Database.xlsx
+++ b/data/Data.Trek_Database.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Nom du jeu de données</t>
   </si>
@@ -160,6 +160,15 @@
     <t>COVID-19</t>
   </si>
   <si>
+    <t>Données Montréal</t>
+  </si>
+  <si>
+    <t>https://donnees.montreal.ca/</t>
+  </si>
+  <si>
+    <t>Différents jeux de données fournies par la ville de Montréal</t>
+  </si>
+  <si>
     <t>Langage</t>
   </si>
   <si>
@@ -191,7 +200,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -251,6 +260,12 @@
     </font>
     <font>
       <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
       <color rgb="FF56A3F1"/>
     </font>
   </fonts>
@@ -280,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -326,10 +341,13 @@
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -990,10 +1008,16 @@
       <c r="Z12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -28639,8 +28663,9 @@
     <hyperlink r:id="rId10" ref="B10"/>
     <hyperlink r:id="rId11" ref="B11"/>
     <hyperlink r:id="rId12" ref="B12"/>
+    <hyperlink r:id="rId13" ref="B13"/>
   </hyperlinks>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -28655,25 +28680,25 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -28695,16 +28720,16 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="15" t="s">
-        <v>49</v>
+      <c r="A2" s="16" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
-        <v>50</v>
+      <c r="A3" s="16" t="s">
+        <v>53</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>51</v>
+      <c r="B3" s="17" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
